--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4055206.299296292</v>
+        <v>4128581.588282379</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800617</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7456093.186447995</v>
+        <v>7357815.411495335</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.6635663638021</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>351.0896319329514</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>85.18011569752122</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.4526127311942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>286.0666761202054</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>237.9332843063845</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.0115294480439</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>128.2917141720172</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>339.1102834028543</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1300,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>78.37104278037462</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>240.6235099003706</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896906</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
         <v>251.0785952498008</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>93.41635432791919</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274073</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.442688425140426</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>25.1755022235788</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>64.07706277311772</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151935</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>5.562624396424664</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>9.907315946607209</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>31.42218700821035</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224547</v>
+        <v>5.453145394759882</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>51.03857167867183</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415187</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>22.87983360476907</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415255</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>51.05128108998212</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463186</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>47.14779273116387</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>248.9913969484774</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>65.83311916721641</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1129.234822142136</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>760.2723052017247</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1344.046505337896</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1344.046505337896</v>
+        <v>1561.609367639912</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,7 +4424,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>308.9833029886191</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>210.9658229629848</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>903.0223537393897</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1422.14692331494</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1739.708500331692</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.74598339128</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.48028478453</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592772</v>
+        <v>1714.760089042374</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331692</v>
+        <v>1341.294330781294</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4883,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.2609724030931</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C10" t="n">
-        <v>405.2609724030931</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D10" t="n">
-        <v>405.2609724030931</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>405.2609724030931</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>405.2609724030931</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>405.2609724030931</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="W10" t="n">
-        <v>405.2609724030931</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="X10" t="n">
-        <v>405.2609724030931</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="Y10" t="n">
-        <v>405.2609724030931</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5029,7 @@
         <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155878</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5039,13 +5041,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5121,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698957</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>360.5132282547778</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>191.5770453268709</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>191.5770453268709</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>191.5770453268709</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>191.5770453268709</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765184</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706316</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>241.980548233671</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>360.5132282547778</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5257,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>423.0269196489024</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>423.0269196489024</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>272.9102802365667</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>272.9102802365667</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>272.9102802365667</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>104.7349585563873</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>423.0269196489024</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>498.9056400965593</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L18" t="n">
-        <v>745.6707680030233</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>234.1814830641755</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>234.1814830641755</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W19" t="n">
-        <v>496.665036439558</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X19" t="n">
-        <v>268.6754855415407</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944152</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5741,7 +5743,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,19 +5752,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,7 +5773,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5789,7 +5791,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095317</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.474758001781</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281743</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945776</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164473</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>4122.943804186304</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>3954.007621258397</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
         <v>4411.546387431057</v>
@@ -5935,25 +5937,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.149147719352</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U22" t="n">
-        <v>4231.246603057541</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V22" t="n">
-        <v>3976.562114851654</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="W22" t="n">
-        <v>3687.144944814693</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>4343.736383329834</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>4122.943804186304</v>
       </c>
     </row>
     <row r="23">
@@ -5975,43 +5977,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6242,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>4091.069939605065</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3774.220663094765</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1467.176687721326</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1267.256677636879</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T28" t="n">
-        <v>1043.471262426384</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U28" t="n">
-        <v>754.3426236399425</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V28" t="n">
-        <v>499.6581354340557</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W28" t="n">
-        <v>499.6581354340557</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>4321.869908593653</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>4101.077329450123</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>735.0407559057238</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2227.840212610278</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>616.0384892293818</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>447.1023063014749</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>616.0384892293818</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>616.0384892293818</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,7 +6958,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6977,10 +6979,10 @@
         <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>3924.3373025071</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>3924.3373025071</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>3947.44824554222</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>3947.44824554222</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>3924.3373025071</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7187,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775516</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1336.274216523786</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1336.274216523786</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1336.274216523786</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1081.589728317899</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>792.1725582809389</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,61 +7402,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504518</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103134</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>964.135741824786</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>916.5117087630043</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,34 +7663,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7731,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>3776.004670426975</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>4185.642686155232</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>4185.642686155232</v>
       </c>
       <c r="W46" t="n">
-        <v>464.8996181017263</v>
+        <v>4185.642686155232</v>
       </c>
       <c r="X46" t="n">
-        <v>464.8996181017263</v>
+        <v>3957.653135257215</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.1070389581962</v>
+        <v>3957.653135257215</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>15.8380490462294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9243,16 +9245,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2603911806626</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776731</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>202.5230052237945</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>104.6241510367952</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208062</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>253.7371603504735</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>73.07721413545839</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>141.4711399423957</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>123.4399707946336</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.84084321165253</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>84.53841024509464</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338389</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>140.8713382501445</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>169.9246642353301</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.54216539558243</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.1315079573349</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>97.57690133954053</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>195.7048197473257</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>146.8695288936211</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>171.4368606209309</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>37.24595545009996</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>220.6898791693746</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176764</v>
@@ -26323,37 +26325,37 @@
         <v>762506.6664885322</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>762506.6664885321</v>
+      </c>
+      <c r="I2" t="n">
         <v>762506.6664885323</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="M2" t="n">
         <v>762506.6664885327</v>
       </c>
-      <c r="K2" t="n">
-        <v>800515.7256176766</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176766</v>
-      </c>
       <c r="N2" t="n">
-        <v>800515.7256176769</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,34 +26429,34 @@
         <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.3948281912</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819121</v>
+        <v>22174.60758687062</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819116</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26476,10 +26478,10 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,25 +26490,25 @@
         <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680202</v>
+        <v>-37944.09944680225</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677423</v>
+        <v>552023.7797677425</v>
       </c>
       <c r="D6" t="n">
-        <v>552023.7797677426</v>
+        <v>552023.7797677425</v>
       </c>
       <c r="E6" t="n">
-        <v>123184.6964760489</v>
+        <v>123184.6964760488</v>
       </c>
       <c r="F6" t="n">
         <v>648344.7329529452</v>
       </c>
       <c r="G6" t="n">
+        <v>648344.7329529452</v>
+      </c>
+      <c r="H6" t="n">
+        <v>648344.7329529447</v>
+      </c>
+      <c r="I6" t="n">
         <v>648344.7329529451</v>
       </c>
-      <c r="H6" t="n">
-        <v>648344.7329529453</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>471921.5137603524</v>
+      </c>
+      <c r="K6" t="n">
         <v>648344.7329529452</v>
       </c>
-      <c r="J6" t="n">
-        <v>471921.5137603526</v>
-      </c>
-      <c r="K6" t="n">
-        <v>603701.7128657475</v>
-      </c>
       <c r="L6" t="n">
-        <v>658207.2249694603</v>
+        <v>648344.7329529449</v>
       </c>
       <c r="M6" t="n">
-        <v>523406.2097356229</v>
+        <v>513543.7177191083</v>
       </c>
       <c r="N6" t="n">
-        <v>658207.2249694603</v>
+        <v>648344.7329529452</v>
       </c>
       <c r="O6" t="n">
-        <v>658207.2249694602</v>
+        <v>648344.7329529454</v>
       </c>
       <c r="P6" t="n">
-        <v>648344.7329529453</v>
+        <v>648344.7329529451</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,34 +26740,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.0702752996784</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>35.14830672310217</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>63.43535732069114</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.13204062090063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>68.61636550047751</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>111.3076844110286</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.5731239040509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>253.6386559002446</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>10.13068531455866</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>146.6640626777096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>11.51413342345742</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28813,13 +28815,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.433370158721048e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34790,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>326.2624260966955</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>441.2361441450414</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>363.8358297686019</v>
+        <v>339.4611332181801</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091978</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>451.7807101798188</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>311.7175659683198</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.8253897034981</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37639,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768305</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>586.9317337484864</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -37877,10 +37879,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38099,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38111,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4128581.588282379</v>
+        <v>4121564.573390667</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800617</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>167.1138608531438</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.0896319329514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>85.18011569752122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>107.0617116175706</v>
       </c>
       <c r="D5" t="n">
-        <v>286.0666761202054</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.1951034842255</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>162.3364906735235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>13.15972490571481</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>339.1102834028543</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>240.6235099003706</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.41635432791919</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274073</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>7.442688425140426</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>140.0680651027552</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>25.1755022235788</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.54716314214161</v>
       </c>
       <c r="D22" t="n">
-        <v>64.07706277311772</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>5.562624396424664</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.907315946607209</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>88.86494278824905</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.453145394759882</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>51.03857167867183</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>22.87983360476907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>51.05128108998212</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>52.2572232931319</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.14779273116387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>248.9913969484774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>222.2179949548713</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.00952757579</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>633.7307662596122</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>222.7448614700047</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.609367639912</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.919485916526</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>308.9833029886191</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1271.984870679801</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="C5" t="n">
-        <v>903.0223537393897</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1271.984870679801</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="6">
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>68.281470188269</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1341.294330781294</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C8" t="n">
-        <v>972.3318138408822</v>
+        <v>825.2129885066822</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>466.9472898999317</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>81.15903730168748</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>1714.760089042374</v>
+        <v>2344.380435748107</v>
       </c>
       <c r="X8" t="n">
-        <v>1341.294330781294</v>
+        <v>1970.914677487027</v>
       </c>
       <c r="Y8" t="n">
-        <v>1341.294330781294</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>485.0749338020197</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C10" t="n">
-        <v>485.0749338020197</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>485.0749338020197</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="V10" t="n">
-        <v>485.0749338020197</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="W10" t="n">
-        <v>485.0749338020197</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="X10" t="n">
-        <v>485.0749338020197</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="Y10" t="n">
-        <v>485.0749338020197</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="11">
@@ -5020,46 +5020,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.5132282547778</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>191.5770453268709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>191.5770453268709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>191.5770453268709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>191.5770453268709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1467.176687721326</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1267.256677636879</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1043.471262426384</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W13" t="n">
-        <v>809.2953582963253</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
-        <v>581.3058073983079</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.5132282547778</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5287,7 +5287,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,7 +5360,7 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635878</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
         <v>1099.417155020476</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>423.0269196489024</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>423.0269196489024</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>272.9102802365667</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>272.9102802365667</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>272.9102802365667</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>104.7349585563873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293931</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924326</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X16" t="n">
-        <v>643.8194987924326</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.0269196489024</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5500,34 +5500,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5597,25 +5597,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>474.7746905116418</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L18" t="n">
-        <v>721.5398184181058</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M18" t="n">
-        <v>1028.859951698067</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>643.8194987924326</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4122.943804186304</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="C22" t="n">
-        <v>3954.007621258397</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D22" t="n">
-        <v>3889.283315426965</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E22" t="n">
-        <v>3889.283315426965</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746786</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.725934227851</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4571.725934227851</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>4571.725934227851</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>4343.736383329834</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y22" t="n">
-        <v>4122.943804186304</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805471</v>
@@ -5986,55 +5986,55 @@
         <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>462.7283310300503</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>709.4934589365143</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880509</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169049</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>330.8254548799443</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,19 +6305,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665166</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
         <v>1808.163466324677</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4091.069939605065</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094765</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4549.85945949167</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4549.85945949167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4549.85945949167</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4321.869908593653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4101.077329450123</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>735.0407559057238</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>525.6009593486384</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C31" t="n">
-        <v>356.6647764207315</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>531.109187020113</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>531.109187020113</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.6009593486384</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,13 +6721,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>2227.840212610278</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.0384892293818</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C34" t="n">
-        <v>447.1023063014749</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273991</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>844.0280401273991</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>616.0384892293818</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>616.0384892293818</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3924.3373025071</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3924.3373025071</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3774.220663094764</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3774.220663094764</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4236.865415579181</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4236.865415579181</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>3947.44824554222</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3947.44824554222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3924.3373025071</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665167</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>1966.019627967826</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2486.320249703573</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1336.274216523786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1336.274216523786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1336.274216523786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1081.589728317899</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>792.1725582809389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.8632439327646</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C43" t="n">
-        <v>565.9270610048577</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D43" t="n">
         <v>415.8104215925219</v>
@@ -7563,10 +7563,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1446.131196524436</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1222.345781313942</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="V43" t="n">
-        <v>964.135741824786</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="W43" t="n">
-        <v>964.135741824786</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X43" t="n">
-        <v>964.135741824786</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.5117087630043</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7654,7 +7654,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7733,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3776.004670426975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4185.642686155232</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>4185.642686155232</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>4185.642686155232</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X46" t="n">
-        <v>3957.653135257215</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>3957.653135257215</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.8724419039332</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.8856946302409</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>176.7176547498455</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503169</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>202.5230052237945</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P33" t="n">
-        <v>104.6241510367952</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>43.65987261462459</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.62661940943602</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>253.7371603504735</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>127.646125010065</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>73.07721413545839</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.54216539558243</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>141.4711399423957</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>112.0695782210728</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>123.4399707946336</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>87.69965795648622</v>
       </c>
       <c r="D22" t="n">
-        <v>84.53841024509464</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>140.8713382501445</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.9246642353301</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>90.96703739368824</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.1315079573349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>97.57690133954053</v>
+        <v>90.96703739368832</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>195.7048197473257</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>146.8695288936211</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.6635866904713</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.4368606209309</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>37.24595545009996</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885326</v>
@@ -26331,31 +26331,31 @@
         <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="I2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="N2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687062</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680225</v>
+        <v>-37944.09944680191</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677425</v>
+        <v>552023.7797677423</v>
       </c>
       <c r="D6" t="n">
-        <v>552023.7797677425</v>
+        <v>552023.7797677423</v>
       </c>
       <c r="E6" t="n">
-        <v>123184.6964760488</v>
+        <v>122210.1052163272</v>
       </c>
       <c r="F6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932236</v>
       </c>
       <c r="G6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932235</v>
       </c>
       <c r="H6" t="n">
-        <v>648344.7329529447</v>
+        <v>647370.1416932233</v>
       </c>
       <c r="I6" t="n">
-        <v>648344.7329529451</v>
+        <v>647370.1416932233</v>
       </c>
       <c r="J6" t="n">
-        <v>471921.5137603524</v>
+        <v>470946.9225006306</v>
       </c>
       <c r="K6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932232</v>
       </c>
       <c r="L6" t="n">
-        <v>648344.7329529449</v>
+        <v>647370.1416932234</v>
       </c>
       <c r="M6" t="n">
-        <v>513543.7177191083</v>
+        <v>512569.1264593862</v>
       </c>
       <c r="N6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932235</v>
       </c>
       <c r="O6" t="n">
-        <v>648344.7329529454</v>
+        <v>647370.1416932234</v>
       </c>
       <c r="P6" t="n">
-        <v>648344.7329529451</v>
+        <v>647370.1416932235</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,7 +26758,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26770,7 +26770,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>246.6703091676512</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.14830672310217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.43535732069114</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>258.2111801534369</v>
       </c>
       <c r="D5" t="n">
-        <v>68.61636550047751</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>153.0517176144023</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>393.7163208359966</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>10.13068531455866</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538052037</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>11.51413342345742</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28815,13 +28815,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.433370158721048e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>441.2361441450414</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35965,16 +35965,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4611332181801</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35983,10 +35983,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36214,13 +36214,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>327.2930933377847</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,7 +36688,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>516.775353191425</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36913,28 +36913,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>451.7807101798188</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>311.7175659683198</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>250.7532875461493</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37642,7 +37642,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>138.6396521945101</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>586.9317337484864</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7395399415897</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4121564.573390667</v>
+        <v>4126503.8362397</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0617116175706</v>
+        <v>303.8074765510483</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>14.1951034842255</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571481</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>24.40051550911085</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31.42218700821035</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274037</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>21.21224374176673</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>140.0680651027552</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>228.9598970661019</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>79.54716314214161</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>140.2633391652611</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.86494278824905</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>57.64843562452403</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>33.32336386742458</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>87.68921229121638</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>52.2572232931319</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>222.2179949548713</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>59.77945773664938</v>
       </c>
     </row>
   </sheetData>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4467,16 +4467,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.018810322078</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C5" t="n">
         <v>1595.875667274027</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.6186503862</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,16 +4649,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.281470188269</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.9299350185087</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447094</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066822</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999317</v>
+        <v>798.5184404945476</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168748</v>
+        <v>412.7301878963033</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>405.7846871470999</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748107</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487027</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511216</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430001</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036443</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,49 +5026,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1467.176687721326</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1267.256677636879</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1043.471262426384</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>754.3426236399425</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>499.6581354340557</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>499.6581354340557</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>118.6436002903532</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>118.6436002903532</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>533.5242089951569</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>244.1070389581962</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,13 +5831,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>557.4905621634928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>959.9316061372626</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>739.1390269937325</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6445,22 +6445,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6779,22 +6779,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>324.3840174432676</v>
+        <v>299.8132378906419</v>
       </c>
       <c r="C34" t="n">
-        <v>155.4478345153607</v>
+        <v>130.8770549627349</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.8770549627349</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.8770549627349</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>130.8770549627349</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735073</v>
+        <v>481.4617027208816</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>709.4934589365139</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>333.7051469529986</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>515.3536117832383</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7414,16 +7414,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1446.131196524436</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1222.345781313942</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>933.2171425274998</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2171425274998</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>643.7999724905393</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>415.8104215925219</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>506.8551071885429</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>157.600382103366</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>176.7176547498449</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.54216539558243</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>124.2088042811645</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>112.0695782210728</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>23.17774625772608</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>87.69965795648622</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>26.98348193336673</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.96703739368824</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>90.96703739368832</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>133.170204595953</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>79.55760880741146</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>145.6635866904713</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154454</v>
       </c>
     </row>
   </sheetData>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="I2" t="n">
         <v>762506.6664885323</v>
@@ -26340,7 +26340,7 @@
         <v>762506.6664885323</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="L2" t="n">
         <v>762506.6664885323</v>
@@ -26349,13 +26349,13 @@
         <v>762506.6664885323</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="O2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="P2" t="n">
         <v>762506.6664885323</v>
-      </c>
-      <c r="P2" t="n">
-        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,25 +26435,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26481,7 +26481,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680191</v>
+        <v>-37944.09944680211</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677423</v>
+        <v>552023.7797677425</v>
       </c>
       <c r="D6" t="n">
         <v>552023.7797677423</v>
       </c>
       <c r="E6" t="n">
-        <v>122210.1052163272</v>
+        <v>123087.2373500769</v>
       </c>
       <c r="F6" t="n">
-        <v>647370.1416932236</v>
+        <v>648247.2738269728</v>
       </c>
       <c r="G6" t="n">
-        <v>647370.1416932235</v>
+        <v>648247.273826973</v>
       </c>
       <c r="H6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.2738269733</v>
       </c>
       <c r="I6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="J6" t="n">
-        <v>470946.9225006306</v>
+        <v>471824.0546343799</v>
       </c>
       <c r="K6" t="n">
-        <v>647370.1416932232</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="L6" t="n">
-        <v>647370.1416932234</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="M6" t="n">
-        <v>512569.1264593862</v>
+        <v>513446.2585931357</v>
       </c>
       <c r="N6" t="n">
-        <v>647370.1416932235</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="O6" t="n">
-        <v>647370.1416932234</v>
+        <v>648247.2738269728</v>
       </c>
       <c r="P6" t="n">
-        <v>647370.1416932235</v>
+        <v>648247.2738269729</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>258.2111801534369</v>
+        <v>61.46541521995925</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>153.0517176144023</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>1.882105749397013</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359966</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>389.3836545116841</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538052037</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,16 +35175,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35509,7 +35509,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36688,10 +36688,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>425.9753597058693</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
